--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8FE1C-63D9-42E4-A94D-E4197A5BC4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E39AA8-1F7B-4C04-97BE-5EA0F882E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1546,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,6 +1694,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1729,12 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3723,7 +3720,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -4101,12 +4098,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K623"/>
+  <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A596" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A605" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E615" sqref="E615"/>
+      <selection pane="bottomLeft" activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,62 +4125,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4209,18 +4206,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4267,7 +4264,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.997000000000085</v>
+        <v>45.997000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4277,7 +4274,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.66</v>
+        <v>104.66</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11479,7 +11476,7 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="63">
+      <c r="A330" s="23">
         <v>40179</v>
       </c>
       <c r="B330" s="20" t="s">
@@ -12883,7 +12880,7 @@
       <c r="D391" s="39">
         <v>0.621</v>
       </c>
-      <c r="E391" s="64"/>
+      <c r="E391" s="51"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -15590,7 +15587,7 @@
         <v>1.25</v>
       </c>
       <c r="H511" s="39"/>
-      <c r="I511" s="64"/>
+      <c r="I511" s="51"/>
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
@@ -17832,11 +17829,15 @@
       <c r="A611" s="40">
         <v>44835</v>
       </c>
-      <c r="B611" s="20"/>
+      <c r="B611" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C611" s="13">
         <v>1.25</v>
       </c>
-      <c r="D611" s="39"/>
+      <c r="D611" s="39">
+        <v>2</v>
+      </c>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
       <c r="G611" s="13">
@@ -17846,33 +17847,39 @@
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
-      <c r="K611" s="20"/>
+      <c r="K611" s="20" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A612" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B612" s="20"/>
-      <c r="C612" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A612" s="40"/>
+      <c r="B612" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C612" s="13"/>
       <c r="D612" s="39"/>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
-      <c r="G612" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H612" s="39"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39">
+        <v>1</v>
+      </c>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
-      <c r="K612" s="20"/>
+      <c r="K612" s="48">
+        <v>44846</v>
+      </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B613" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B613" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C613" s="13">
         <v>1.25</v>
       </c>
@@ -17883,16 +17890,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H613" s="39"/>
+      <c r="H613" s="39">
+        <v>1</v>
+      </c>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
-      <c r="K613" s="20"/>
+      <c r="K613" s="48">
+        <v>44868</v>
+      </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A614" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="B614" s="20"/>
+      <c r="A614" s="40"/>
+      <c r="B614" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
       <c r="E614" s="9"/>
@@ -17904,11 +17915,13 @@
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
-      <c r="K614" s="20"/>
+      <c r="K614" s="48">
+        <v>44888</v>
+      </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13">
@@ -17927,7 +17940,9 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A616" s="40"/>
+      <c r="A616" s="47" t="s">
+        <v>424</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -17943,15 +17958,19 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>44927</v>
+      </c>
       <c r="B617" s="20"/>
-      <c r="C617" s="13"/>
+      <c r="C617" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G617" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
@@ -18053,6 +18072,38 @@
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A624" s="40"/>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="39"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="39"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625" s="40"/>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="39"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18118,17 +18169,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -18211,12 +18262,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/ROCILLO, CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="437">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1339,6 +1339,12 @@
   </si>
   <si>
     <t>UT(0-2-23)</t>
+  </si>
+  <si>
+    <t>10/24,25/2023</t>
+  </si>
+  <si>
+    <t>10/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2216,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2323,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2383,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2449,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2512,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2610,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2669,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2734,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2777,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2852,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3038,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3104,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3162,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3228,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3284,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3359,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3402,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3468,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3524,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3622,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3685,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K691" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4123,12 +4129,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K691"/>
+  <dimension ref="A2:K693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A620" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A617" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K633" sqref="K633"/>
+      <selection pane="bottomLeft" activeCell="F641" sqref="F641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4299,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.891000000000091</v>
+        <v>51.641000000000091</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4303,7 +4309,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.41</v>
+        <v>102.16</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18383,13 +18389,15 @@
         <v>45170</v>
       </c>
       <c r="B634" s="20"/>
-      <c r="C634" s="13"/>
+      <c r="C634" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G634" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
@@ -18400,25 +18408,33 @@
       <c r="A635" s="40">
         <v>45200</v>
       </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39"/>
+      <c r="B635" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D635" s="39">
+        <v>2</v>
+      </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B636" s="20"/>
+      <c r="A636" s="40"/>
+      <c r="B636" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C636" s="13"/>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
@@ -18427,36 +18443,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H636" s="39"/>
+      <c r="H636" s="39">
+        <v>2</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="20" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B637" s="20"/>
-      <c r="C637" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B637" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="48">
+        <v>45252</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B638" s="20"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
+      <c r="D638" s="39">
+        <v>2</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="13" t="str">
@@ -18466,11 +18494,11 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="48"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18488,7 +18516,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18506,7 +18534,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18524,7 +18552,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18542,7 +18570,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18560,7 +18588,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18578,7 +18606,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18596,7 +18624,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18614,7 +18642,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18632,7 +18660,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18650,7 +18678,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18668,7 +18696,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18686,7 +18714,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18704,7 +18732,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18722,7 +18750,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18740,7 +18768,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18758,7 +18786,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18776,7 +18804,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18794,7 +18822,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18812,7 +18840,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18830,7 +18858,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18848,7 +18876,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18866,7 +18894,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18884,7 +18912,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18902,7 +18930,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18920,7 +18948,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18938,7 +18966,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18956,7 +18984,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18974,7 +19002,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18992,7 +19020,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19010,7 +19038,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19028,7 +19056,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19046,7 +19074,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19064,7 +19092,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19082,7 +19110,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19100,7 +19128,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19118,7 +19146,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19136,7 +19164,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19154,7 +19182,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19172,7 +19200,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19190,7 +19218,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19208,7 +19236,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19226,7 +19254,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19244,7 +19272,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19262,7 +19290,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19280,7 +19308,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19298,7 +19326,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19316,7 +19344,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19334,7 +19362,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19352,7 +19380,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19370,7 +19398,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19388,7 +19416,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19406,7 +19434,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19421,6 +19449,42 @@
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B692" s="20"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="39"/>
+      <c r="E692" s="9"/>
+      <c r="F692" s="20"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H692" s="39"/>
+      <c r="I692" s="9"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="20"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B693" s="20"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="39"/>
+      <c r="E693" s="9"/>
+      <c r="F693" s="20"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="39"/>
+      <c r="I693" s="9"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19436,7 +19500,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -19592,7 +19656,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>152.3010000000001</v>
+        <v>153.8010000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
